--- a/GUI/media/reports/izolasyon_mono.xlsx
+++ b/GUI/media/reports/izolasyon_mono.xlsx
@@ -22,7 +22,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -103,6 +103,9 @@
       <b val="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <sz val="9"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -553,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -752,6 +755,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -868,9 +874,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>13</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -893,12 +899,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>13</col>
       <colOff>0</colOff>
-      <row>47</row>
+      <row>40</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4286250" cy="3705225"/>
+    <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -906,6 +912,156 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>0</colOff>
+      <row>55</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="323850" cy="2952750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>0</colOff>
+      <row>70</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="323850" cy="2952750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="323850" cy="2952750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="323850" cy="2952750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="323850" cy="2952750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>107</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4286250" cy="3705225"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1211,7 +1367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
@@ -1263,7 +1419,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="70" t="n">
-        <v>44245.9014778054</v>
+        <v>44248.7603093614</v>
       </c>
       <c r="O1" s="48" t="n"/>
     </row>
@@ -1310,7 +1466,7 @@
       </c>
       <c r="H3" s="73" t="inlineStr">
         <is>
-          <t>0.0 kg</t>
+          <t>2.762 kg</t>
         </is>
       </c>
       <c r="I3" s="51" t="n"/>
@@ -1351,7 +1507,7 @@
       </c>
       <c r="H4" s="73" t="inlineStr">
         <is>
-          <t>0.0 kg</t>
+          <t>43.609 kg</t>
         </is>
       </c>
       <c r="I4" s="51" t="n"/>
@@ -1402,7 +1558,7 @@
       <c r="K5" s="77" t="n"/>
       <c r="L5" s="78" t="inlineStr">
         <is>
-          <t>TRV10 / 39.0 / 33.0 - 171 Kose</t>
+          <t>TRV4B / 25.0 / 18.0 - 120 Kose</t>
         </is>
       </c>
       <c r="O5" s="77" t="n"/>
@@ -1468,7 +1624,7 @@
       </c>
       <c r="H7" s="73" t="inlineStr">
         <is>
-          <t>Al:0.0 //  Cu:0.0kg</t>
+          <t>Al:46.372 //  Cu:0.0kg</t>
         </is>
       </c>
       <c r="I7" s="51" t="n"/>
@@ -1510,25 +1666,25 @@
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0.0 V ( 0V )</t>
+          <t>444.0 V ( 416.875V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0.0 V ( 0V )</t>
+          <t>0.0 V ( 0.0V )</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="81" t="inlineStr">
         <is>
-          <t>1 NOLU KADEME:</t>
+          <t>3 NOLU KADEME:</t>
         </is>
       </c>
       <c r="I11" s="81" t="inlineStr">
         <is>
-          <t>1 NOLU KADEME:</t>
+          <t>5 NOLU KADEME:</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1694,11 @@
           <t>Tel :</t>
         </is>
       </c>
-      <c r="B12" s="26" t="inlineStr"/>
+      <c r="B12" s="26" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
       <c r="C12" s="22" t="n"/>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="n"/>
@@ -1583,7 +1743,7 @@
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
@@ -1609,7 +1769,7 @@
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>0</v>
+        <v>38.40000000000001</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
@@ -1635,7 +1795,7 @@
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
@@ -1659,7 +1819,7 @@
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>0</v>
+        <v>41.758424</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1708,7 +1868,7 @@
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>0 sp</t>
+          <t>145 sp</t>
         </is>
       </c>
       <c r="I19" s="82" t="inlineStr">
@@ -1753,7 +1913,11 @@
         </is>
       </c>
       <c r="B21" s="24" t="n"/>
-      <c r="C21" s="24" t="n"/>
+      <c r="C21" s="84" t="inlineStr">
+        <is>
+          <t>12.0x2.0</t>
+        </is>
+      </c>
       <c r="D21" s="24" t="n"/>
       <c r="E21" s="24" t="n"/>
       <c r="I21" s="82" t="inlineStr">
@@ -1773,7 +1937,9 @@
         </is>
       </c>
       <c r="B22" s="26" t="n"/>
-      <c r="C22" s="26" t="n"/>
+      <c r="C22" s="84" t="n">
+        <v>2.7059458752</v>
+      </c>
       <c r="D22" s="26" t="n"/>
       <c r="E22" s="26" t="n"/>
       <c r="I22" s="82" t="inlineStr">
@@ -1836,7 +2002,11 @@
       <c r="C25" s="24" t="n"/>
       <c r="D25" s="24" t="n"/>
       <c r="E25" s="24" t="n"/>
-      <c r="G25" s="2" t="n"/>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>233.0 V ( 218.5V )</t>
+        </is>
+      </c>
       <c r="I25" s="82" t="inlineStr">
         <is>
           <t>Kapton :</t>
@@ -1846,282 +2016,1056 @@
       <c r="K25" s="24" t="n"/>
       <c r="L25" s="24" t="n"/>
       <c r="M25" s="24" t="n"/>
-      <c r="O25" s="2" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1"/>
-    <row r="27" ht="15" customHeight="1"/>
-    <row r="28" ht="15" customHeight="1"/>
-    <row r="29" ht="15" customHeight="1" thickBot="1"/>
-    <row r="30" ht="15" customHeight="1" thickBot="1"/>
-    <row r="31" ht="15" customHeight="1" thickBot="1"/>
-    <row r="32" ht="15" customHeight="1" thickBot="1"/>
-    <row r="33" ht="15" customHeight="1" thickBot="1"/>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>555.0 V ( 520.375V )</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="81" t="inlineStr">
+        <is>
+          <t>2 NOLU KADEME:</t>
+        </is>
+      </c>
+      <c r="I26" s="81" t="inlineStr">
+        <is>
+          <t>4 NOLU KADEME:</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="82" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="B27" s="83" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="I27" s="82" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="J27" s="83" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="82" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="B28" s="83" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I28" s="82" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="J28" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" thickBot="1">
+      <c r="A29" s="82" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="B29" s="83" t="n">
+        <v>0.6361725123519332</v>
+      </c>
+      <c r="I29" s="82" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="J29" s="83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" thickBot="1">
+      <c r="A30" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="B30" s="83" t="n">
+        <v>1.017876019763093</v>
+      </c>
+      <c r="I30" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="J30" s="83" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" thickBot="1">
+      <c r="A31" s="82" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="B31" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="82" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="J31" s="83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" thickBot="1">
+      <c r="A32" s="82" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="B32" s="83" t="n">
+        <v>32.905064</v>
+      </c>
+      <c r="I32" s="82" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="J32" s="83" t="n">
+        <v>83.66870400000001</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" thickBot="1">
+      <c r="B33" s="83" t="inlineStr"/>
+      <c r="C33" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+      <c r="J33" s="83" t="inlineStr"/>
+      <c r="K33" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+    </row>
     <row r="34" ht="15" customHeight="1" thickBot="1">
-      <c r="B34" s="34" t="inlineStr">
+      <c r="A34" s="82" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="B34" s="84" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G34" s="17" t="inlineStr">
+        <is>
+          <t>76 sp</t>
+        </is>
+      </c>
+      <c r="I34" s="82" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="O34" s="17" t="inlineStr">
+        <is>
+          <t>181 sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" thickBot="1">
+      <c r="A35" s="82" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+      <c r="B35" s="84" t="n">
+        <v>0.0565199025317491</v>
+      </c>
+      <c r="I35" s="82" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" thickBot="1">
+      <c r="A36" s="82" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+      <c r="I36" s="82" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+      <c r="J36" s="84" t="inlineStr">
+        <is>
+          <t>4.0x2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" thickBot="1">
+      <c r="A37" s="82" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+      <c r="I37" s="82" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+      <c r="J37" s="84" t="n">
+        <v>2.259055008</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" thickBot="1">
+      <c r="A38" s="82" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+      <c r="I38" s="82" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" thickBot="1">
+      <c r="A39" s="82" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+      <c r="I39" s="82" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" thickBot="1">
+      <c r="A40" s="82" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+      <c r="G40" s="17" t="inlineStr">
+        <is>
+          <t>23.0 V ( 23.0V )</t>
+        </is>
+      </c>
+      <c r="I40" s="82" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+      <c r="O40" s="17" t="inlineStr">
+        <is>
+          <t>443.0 V ( 416.875V )</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" thickBot="1">
+      <c r="A41" s="81" t="inlineStr">
+        <is>
+          <t>1 NOLU KADEME:</t>
+        </is>
+      </c>
+      <c r="I41" s="81" t="inlineStr">
+        <is>
+          <t>3 NOLU KADEME:</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" thickBot="1">
+      <c r="A42" s="82" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="B42" s="83" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="I42" s="82" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="J42" s="83" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="82" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="B43" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="82" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="J43" s="83" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="82" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="B44" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="82" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="J44" s="83" t="n">
+        <v>70.23758294442773</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="B45" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="J45" s="83" t="n">
+        <v>112.3801327110844</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="82" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="B46" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="82" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="J46" s="83" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="82" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="B47" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="82" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="J47" s="83" t="n">
+        <v>218.04534</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="83" t="inlineStr"/>
+      <c r="C48" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+      <c r="J48" s="83" t="inlineStr"/>
+      <c r="K48" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="82" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="G49" s="17" t="inlineStr">
+        <is>
+          <t>8 sp</t>
+        </is>
+      </c>
+      <c r="I49" s="82" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="J49" s="84" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O49" s="17" t="inlineStr">
+        <is>
+          <t>145 sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="82" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+      <c r="I50" s="82" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+      <c r="J50" s="84" t="n">
+        <v>0.1398704055190517</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="82" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+      <c r="I51" s="82" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+      <c r="J51" s="84" t="inlineStr">
+        <is>
+          <t>10.0x7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="82" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+      <c r="I52" s="82" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+      <c r="J52" s="84" t="n">
+        <v>41.21056926</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="82" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+      <c r="I53" s="82" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="82" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+      <c r="I54" s="82" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="82" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+      <c r="I55" s="82" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+      <c r="O55" s="17" t="inlineStr">
+        <is>
+          <t>0.0 V ( 0.0V )</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="I56" s="81" t="inlineStr">
+        <is>
+          <t>2 NOLU KADEME:</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="I57" s="82" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="J57" s="83" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="I58" s="82" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="J58" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="I59" s="82" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="J59" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="I60" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="J60" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="I61" s="82" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="J61" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="I62" s="82" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="J62" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="J63" s="83" t="inlineStr"/>
+      <c r="K63" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" s="82" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="O64" s="17" t="inlineStr">
+        <is>
+          <t>0 sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="I65" s="82" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="I66" s="82" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="I67" s="82" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="I68" s="82" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="I69" s="82" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="I70" s="82" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+      <c r="O70" s="17" t="inlineStr">
+        <is>
+          <t>440.0 V ( 414.0V )</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="I71" s="81" t="inlineStr">
+        <is>
+          <t>1 NOLU KADEME:</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="I72" s="82" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="J72" s="83" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="I73" s="82" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="J73" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="I74" s="82" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="J74" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="I75" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="J75" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="I76" s="82" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="J76" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="I77" s="82" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="J77" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="J78" s="83" t="inlineStr"/>
+      <c r="K78" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="I79" s="82" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="O79" s="17" t="inlineStr">
+        <is>
+          <t>144 sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="I80" s="82" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="I81" s="82" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="I82" s="82" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="I83" s="82" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="I84" s="82" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="I85" s="82" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+    </row>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94">
+      <c r="B94" s="34" t="inlineStr">
         <is>
           <t>IZOLASYON DEGERLERI</t>
         </is>
       </c>
-      <c r="C34" s="35" t="n"/>
-      <c r="D34" s="35" t="n"/>
-      <c r="E34" s="35" t="n"/>
-      <c r="F34" s="35" t="n"/>
-      <c r="G34" s="15" t="n"/>
-    </row>
-    <row r="35" ht="15" customHeight="1" thickBot="1">
-      <c r="B35" s="84" t="inlineStr">
+      <c r="C94" s="35" t="n"/>
+      <c r="D94" s="35" t="n"/>
+      <c r="E94" s="35" t="n"/>
+      <c r="F94" s="35" t="n"/>
+      <c r="G94" s="15" t="n"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="85" t="inlineStr">
         <is>
           <t>Primer Kademe</t>
         </is>
       </c>
-      <c r="C35" s="46" t="n"/>
-      <c r="D35" s="46" t="n"/>
-      <c r="E35" s="48" t="n"/>
-      <c r="F35" s="7" t="inlineStr">
+      <c r="C95" s="46" t="n"/>
+      <c r="D95" s="46" t="n"/>
+      <c r="E95" s="48" t="n"/>
+      <c r="F95" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
         </is>
       </c>
-      <c r="G35" s="8" t="inlineStr">
+      <c r="G95" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ekran </t>
         </is>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" thickBot="1">
-      <c r="B36" s="85" t="inlineStr">
+    <row r="96">
+      <c r="B96" s="86" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C36" s="46" t="n"/>
-      <c r="D36" s="46" t="n"/>
-      <c r="E36" s="86" t="n"/>
-      <c r="F36" s="18" t="inlineStr">
+      <c r="C96" s="46" t="n"/>
+      <c r="D96" s="46" t="n"/>
+      <c r="E96" s="87" t="n"/>
+      <c r="F96" s="18" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="G36" s="19" t="inlineStr">
+      <c r="G96" s="19" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="84" t="inlineStr">
+    <row r="97">
+      <c r="B97" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">VA Kademe </t>
         </is>
       </c>
-      <c r="C37" s="46" t="n"/>
-      <c r="D37" s="46" t="n"/>
-      <c r="E37" s="48" t="n"/>
-      <c r="F37" s="7" t="inlineStr">
+      <c r="C97" s="46" t="n"/>
+      <c r="D97" s="46" t="n"/>
+      <c r="E97" s="48" t="n"/>
+      <c r="F97" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
         </is>
       </c>
-      <c r="G37" s="8" t="inlineStr">
+      <c r="G97" s="8" t="inlineStr">
         <is>
           <t>Ekstra</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="B38" s="85" t="inlineStr">
+    <row r="98">
+      <c r="B98" s="86" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C38" s="46" t="n"/>
-      <c r="D38" s="46" t="n"/>
-      <c r="E38" s="86" t="n"/>
-      <c r="F38" s="18" t="inlineStr">
+      <c r="C98" s="46" t="n"/>
+      <c r="D98" s="46" t="n"/>
+      <c r="E98" s="87" t="n"/>
+      <c r="F98" s="18" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="G38" s="19" t="inlineStr">
+      <c r="G98" s="19" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" thickBot="1">
-      <c r="B39" s="84" t="inlineStr">
+    <row r="99">
+      <c r="B99" s="85" t="inlineStr">
         <is>
           <t>Primer-Sekonder</t>
         </is>
       </c>
-      <c r="C39" s="46" t="n"/>
-      <c r="D39" s="46" t="n"/>
-      <c r="E39" s="48" t="n"/>
-      <c r="F39" s="7" t="inlineStr">
+      <c r="C99" s="46" t="n"/>
+      <c r="D99" s="46" t="n"/>
+      <c r="E99" s="48" t="n"/>
+      <c r="F99" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
         </is>
       </c>
-      <c r="G39" s="8" t="n"/>
-    </row>
-    <row r="40" ht="15" customHeight="1" thickBot="1">
-      <c r="B40" s="85" t="inlineStr">
+      <c r="G99" s="8" t="n"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="86" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C40" s="46" t="n"/>
-      <c r="D40" s="46" t="n"/>
-      <c r="E40" s="86" t="n"/>
-      <c r="F40" s="20" t="inlineStr">
+      <c r="C100" s="46" t="n"/>
+      <c r="D100" s="46" t="n"/>
+      <c r="E100" s="87" t="n"/>
+      <c r="F100" s="20" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="G40" s="16" t="n"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" thickBot="1">
-      <c r="B41" s="34" t="inlineStr">
+      <c r="G100" s="16" t="n"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="34" t="inlineStr">
         <is>
           <t>NÜVE ÖLÇÜLERİ (mm)</t>
         </is>
       </c>
-      <c r="C41" s="35" t="n"/>
-      <c r="D41" s="35" t="n"/>
-      <c r="E41" s="35" t="n"/>
-      <c r="F41" s="35" t="n"/>
-      <c r="G41" s="35" t="n"/>
-    </row>
-    <row r="42" ht="15" customHeight="1" thickBot="1">
-      <c r="B42" s="7" t="inlineStr">
+      <c r="C101" s="35" t="n"/>
+      <c r="D101" s="35" t="n"/>
+      <c r="E101" s="35" t="n"/>
+      <c r="F101" s="35" t="n"/>
+      <c r="G101" s="35" t="n"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C42" s="7" t="inlineStr">
+      <c r="C102" s="7" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D42" s="7" t="inlineStr">
+      <c r="D102" s="7" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="E42" s="7" t="inlineStr">
+      <c r="E102" s="7" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="F42" s="7" t="inlineStr">
+      <c r="F102" s="7" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="G42" s="8" t="inlineStr">
+      <c r="G102" s="8" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="28" t="inlineStr">
+    <row r="103">
+      <c r="B103" s="28" t="inlineStr">
         <is>
           <t>300.0 mm</t>
         </is>
       </c>
-      <c r="C43" s="29" t="inlineStr">
-        <is>
-          <t>190.0 mm</t>
-        </is>
-      </c>
-      <c r="D43" s="29" t="inlineStr">
-        <is>
-          <t>283.0 mm</t>
-        </is>
-      </c>
-      <c r="E43" s="29" t="inlineStr"/>
-      <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="30" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="34" t="inlineStr">
+      <c r="C103" s="29" t="inlineStr">
+        <is>
+          <t>166.0 mm</t>
+        </is>
+      </c>
+      <c r="D103" s="29" t="inlineStr">
+        <is>
+          <t>268.0 mm</t>
+        </is>
+      </c>
+      <c r="E103" s="29" t="inlineStr"/>
+      <c r="F103" s="29" t="inlineStr"/>
+      <c r="G103" s="30" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="34" t="inlineStr">
         <is>
           <t>TRAFO ÖLÇÜLERİ (mm)</t>
         </is>
       </c>
-      <c r="C44" s="35" t="n"/>
-      <c r="D44" s="35" t="n"/>
-      <c r="E44" s="35" t="n"/>
-      <c r="F44" s="35" t="n"/>
-      <c r="G44" s="35" t="n"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="7" t="inlineStr">
+      <c r="C104" s="35" t="n"/>
+      <c r="D104" s="35" t="n"/>
+      <c r="E104" s="35" t="n"/>
+      <c r="F104" s="35" t="n"/>
+      <c r="G104" s="35" t="n"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C45" s="7" t="inlineStr">
+      <c r="C105" s="7" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D45" s="7" t="inlineStr">
+      <c r="D105" s="7" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="E45" s="7" t="inlineStr">
+      <c r="E105" s="7" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="F45" s="7" t="inlineStr">
+      <c r="F105" s="7" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="G45" s="8" t="inlineStr">
+      <c r="G105" s="8" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" s="28" t="inlineStr">
+    <row r="106">
+      <c r="B106" s="28" t="inlineStr">
         <is>
           <t>300.0 mm</t>
         </is>
       </c>
-      <c r="C46" s="29" t="inlineStr">
+      <c r="C106" s="29" t="inlineStr">
         <is>
           <t>220.0 mm</t>
         </is>
       </c>
-      <c r="D46" s="29" t="inlineStr">
+      <c r="D106" s="29" t="inlineStr">
         <is>
           <t>250.0 mm</t>
         </is>
       </c>
-      <c r="E46" s="29" t="inlineStr">
+      <c r="E106" s="29" t="inlineStr">
         <is>
           <t>240.0 mm</t>
         </is>
       </c>
-      <c r="F46" s="29" t="inlineStr">
+      <c r="F106" s="29" t="inlineStr">
         <is>
           <t>174.0 mm</t>
         </is>
       </c>
-      <c r="G46" s="30" t="inlineStr">
+      <c r="G106" s="30" t="inlineStr">
         <is>
           <t>0.0 mm</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="38">
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -2146,14 +3090,20 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
     <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="I71:M71"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
@@ -2189,10 +3139,10 @@
           <t>Malzeme Listesi</t>
         </is>
       </c>
-      <c r="C1" s="87" t="n"/>
-      <c r="D1" s="87" t="n"/>
-      <c r="E1" s="87" t="n"/>
-      <c r="F1" s="88" t="n"/>
+      <c r="C1" s="88" t="n"/>
+      <c r="D1" s="88" t="n"/>
+      <c r="E1" s="88" t="n"/>
+      <c r="F1" s="89" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="42" t="n"/>
@@ -2218,9 +3168,15 @@
       <c r="A3" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="n"/>
+      <c r="B3" s="42" t="inlineStr">
+        <is>
+          <t>H010010X90AET</t>
+        </is>
+      </c>
       <c r="C3" s="42" t="n"/>
-      <c r="D3" s="42" t="n"/>
+      <c r="D3" s="42" t="n">
+        <v>0.0565199025317491</v>
+      </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
     </row>
@@ -2228,9 +3184,15 @@
       <c r="A4" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="n"/>
+      <c r="B4" s="42" t="inlineStr">
+        <is>
+          <t>H010010X55AET</t>
+        </is>
+      </c>
       <c r="C4" s="42" t="n"/>
-      <c r="D4" s="42" t="n"/>
+      <c r="D4" s="42" t="n">
+        <v>0.1398704055190517</v>
+      </c>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>
     </row>
@@ -2238,9 +3200,15 @@
       <c r="A5" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="n"/>
+      <c r="B5" s="42" t="inlineStr">
+        <is>
+          <t>H0101210X7KPAL</t>
+        </is>
+      </c>
       <c r="C5" s="42" t="n"/>
-      <c r="D5" s="42" t="n"/>
+      <c r="D5" s="42" t="n">
+        <v>41.21056926</v>
+      </c>
       <c r="E5" s="42" t="n"/>
       <c r="F5" s="42" t="n"/>
     </row>
@@ -2248,9 +3216,15 @@
       <c r="A6" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="n"/>
+      <c r="B6" s="42" t="inlineStr">
+        <is>
+          <t>12X2YSAPFI</t>
+        </is>
+      </c>
       <c r="C6" s="42" t="n"/>
-      <c r="D6" s="42" t="n"/>
+      <c r="D6" s="42" t="n">
+        <v>2.7059458752</v>
+      </c>
       <c r="E6" s="42" t="n"/>
       <c r="F6" s="42" t="n"/>
     </row>
@@ -2258,9 +3232,15 @@
       <c r="A7" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="42" t="n"/>
+      <c r="B7" s="42" t="inlineStr">
+        <is>
+          <t>H0103004X2,5PFI</t>
+        </is>
+      </c>
       <c r="C7" s="42" t="n"/>
-      <c r="D7" s="42" t="n"/>
+      <c r="D7" s="42" t="n">
+        <v>2.259055008</v>
+      </c>
       <c r="E7" s="42" t="n"/>
       <c r="F7" s="42" t="n"/>
     </row>
